--- a/projects/va_emerging_tech/jbennett_dissertation/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/jbennett_dissertation/data/scenarios_emerging_tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC588E48-3CB1-4551-8F02-09D0C1200D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2BD099-0B63-4EBC-B48A-D66B680F669F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -639,7 +639,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1480,22 +1494,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:XFD9">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1508,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,10 +1947,10 @@
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2021,92 +2035,102 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E5 B26 B27:C29 B28:D28 F2:XFD29 B30:XFD1048576 D23:E23 C17:E21 C23:C25 D25:E29 E24 E9:E15 E7">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+  <conditionalFormatting sqref="E2:E5 B26 F2:XFD29 B30:XFD1048576 D23:E23 C17:E21 C23:C25 D25:E26 E24 E9:E15 E7 B28:E29">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5 B17:B25 B9:B15 B7">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="C2:C5 C9:C15 C7">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5 C9:C15 C7">
+  <conditionalFormatting sqref="D2:D5 D9:D15 D7">
     <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5 D9:D15 D7">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27 D27:E27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2287,27 +2311,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:XFD4 B3:E4 B5:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2583,12 +2607,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E19 F2:XFD1048576 B21:E1048576 B20:C20">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
